--- a/Filmdaten.xlsx
+++ b/Filmdaten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werkzeug\XAMPP\htdocs\Arbeitsbereich\Schule\M153-Filmdatenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1ACBF-1A31-4499-83A2-B1B197FC769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EF22B-1304-4BA2-9BE3-0398F62D51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{78F2C38C-45CD-4ED2-84E5-D94DDF5B428E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>Titel</t>
   </si>
@@ -46,15 +46,6 @@
     <t>Erscheinungsjahr</t>
   </si>
   <si>
-    <t>Ausgaben</t>
-  </si>
-  <si>
-    <t>Einnahmen</t>
-  </si>
-  <si>
-    <t>Dauer</t>
-  </si>
-  <si>
     <t>Nachfolger</t>
   </si>
   <si>
@@ -136,15 +127,9 @@
     <t>Australien</t>
   </si>
   <si>
-    <t>VH</t>
-  </si>
-  <si>
     <t>Science Fiction</t>
   </si>
   <si>
-    <t>Mat</t>
-  </si>
-  <si>
     <t>Wachowski</t>
   </si>
   <si>
@@ -157,15 +142,9 @@
     <t>Melodrama</t>
   </si>
   <si>
-    <t>Aus</t>
-  </si>
-  <si>
     <t>20th Century Fox</t>
   </si>
   <si>
-    <t>aus</t>
-  </si>
-  <si>
     <t>Luhrmann</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>Musical</t>
   </si>
   <si>
-    <t>hf</t>
-  </si>
-  <si>
     <t>Komödie</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t>Romantik</t>
   </si>
   <si>
-    <t>tit</t>
-  </si>
-  <si>
     <t>Katastrophe</t>
   </si>
   <si>
@@ -247,18 +220,9 @@
     <t>Kanada</t>
   </si>
   <si>
-    <t>Mat / HF/JK/</t>
-  </si>
-  <si>
     <t>Lionsgate</t>
   </si>
   <si>
-    <t>hg</t>
-  </si>
-  <si>
-    <t>Van Helsing/ouija</t>
-  </si>
-  <si>
     <t>1997-07-10</t>
   </si>
   <si>
@@ -277,18 +241,12 @@
     <t>Todd</t>
   </si>
   <si>
-    <t>jk</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
     <t>Scott</t>
   </si>
   <si>
-    <t>tit/ava</t>
-  </si>
-  <si>
     <t>thriller</t>
   </si>
   <si>
@@ -298,12 +256,6 @@
     <t>Dystopisch</t>
   </si>
   <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>Mat/ava/mr</t>
-  </si>
-  <si>
     <t>Oppenheim</t>
   </si>
   <si>
@@ -316,12 +268,6 @@
     <t>T.S.</t>
   </si>
   <si>
-    <t>mr/hg</t>
-  </si>
-  <si>
-    <t>VH, Mat/hg</t>
-  </si>
-  <si>
     <t>Collins</t>
   </si>
   <si>
@@ -343,12 +289,6 @@
     <t>übernatürlich</t>
   </si>
   <si>
-    <t>ouija</t>
-  </si>
-  <si>
-    <t>VH/ouija</t>
-  </si>
-  <si>
     <t>Snowden</t>
   </si>
   <si>
@@ -367,9 +307,6 @@
     <t>Grant Pierce</t>
   </si>
   <si>
-    <t>aus/tit/ava/mr</t>
-  </si>
-  <si>
     <t>2019-10-04</t>
   </si>
   <si>
@@ -398,6 +335,18 @@
   </si>
   <si>
     <t>1997-12-19</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Ausgaben in Mio.</t>
+  </si>
+  <si>
+    <t>Einnahmen in Mio.</t>
+  </si>
+  <si>
+    <t>Dauer in Min</t>
   </si>
 </sst>
 </file>
@@ -764,13 +713,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D0B11-DCDA-4C69-B42D-2E1914B267A3}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -781,24 +733,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>62.5</v>
@@ -816,10 +768,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -836,10 +788,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -856,10 +808,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>78</v>
@@ -876,10 +828,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -896,10 +848,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>170</v>
@@ -916,10 +868,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>63</v>
@@ -936,10 +888,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>130</v>
@@ -956,10 +908,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -976,10 +928,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -1001,82 +953,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919FE86-9C85-4549-9784-71AE89005491}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1086,113 +1054,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E578BD03-AFF7-4881-A938-B0DCE5DC1681}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1202,377 +1189,386 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153FCA2C-9FD5-43AE-900F-C46F1734FC5E}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>1962</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1965</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1967</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>1962</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1934</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
       <c r="C7">
         <v>1972</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1961</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>1945</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>1955</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
       <c r="C11">
         <v>1947</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>1954</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>1964</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>1978</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>1962</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>1956</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C21">
         <v>1962</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Filmdaten.xlsx
+++ b/Filmdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werkzeug\XAMPP\htdocs\Arbeitsbereich\Schule\M153-Filmdatenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EF22B-1304-4BA2-9BE3-0398F62D51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C070F575-68E7-4187-A41F-9DBC8E3DB876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{78F2C38C-45CD-4ED2-84E5-D94DDF5B428E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{78F2C38C-45CD-4ED2-84E5-D94DDF5B428E}"/>
   </bookViews>
   <sheets>
     <sheet name="Filmtitel" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Stephen</t>
   </si>
   <si>
-    <t>Warner Bros</t>
-  </si>
-  <si>
     <t>Australien</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Melodrama</t>
   </si>
   <si>
-    <t>20th Century Fox</t>
-  </si>
-  <si>
     <t>Luhrmann</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Kanada</t>
   </si>
   <si>
-    <t>Lionsgate</t>
-  </si>
-  <si>
     <t>1997-07-10</t>
   </si>
   <si>
@@ -347,6 +338,15 @@
   </si>
   <si>
     <t>Dauer in Min</t>
+  </si>
+  <si>
+    <t>Warner Bros. Pictures</t>
+  </si>
+  <si>
+    <t>20th Century Studios</t>
+  </si>
+  <si>
+    <t>Lionsgate Films</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53D0B11-DCDA-4C69-B42D-2E1914B267A3}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -733,13 +733,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -750,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>62.5</v>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>237</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>78</v>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>170</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>63</v>
@@ -891,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>130</v>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -931,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -955,11 +955,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0919FE86-9C85-4549-9784-71AE89005491}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -978,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -992,10 +994,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1027,18 +1029,18 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1103,21 +1105,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1125,7 +1127,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1133,7 +1135,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1141,7 +1143,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1149,7 +1151,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1165,10 +1167,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1234,10 +1236,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3">
         <v>1965</v>
@@ -1251,10 +1253,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1967</v>
@@ -1268,16 +1270,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1962</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1285,16 +1287,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1934</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1302,16 +1304,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1972</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1319,16 +1321,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1961</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1336,16 +1338,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>1945</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1353,16 +1355,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>1955</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1370,16 +1372,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1947</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1387,10 +1389,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1398,30 +1400,30 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1954</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1970</v>
@@ -1435,10 +1437,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1964</v>
@@ -1452,10 +1454,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>1978</v>
@@ -1464,40 +1466,40 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1962</v>
@@ -1511,10 +1513,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>1956</v>
@@ -1528,10 +1530,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>1962</v>
@@ -1545,10 +1547,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1559,10 +1561,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
